--- a/va_facility_data_2025-02-20/Willimantic VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Willimantic%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Willimantic VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Willimantic%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R2923965dc2774e87b3aacfb7d0efc49e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra369adb5a0ae4db388f4204886df902f"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rfcfe086a9da149e78712cde9eb4bb258"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rce6f0683cf814fa4a3d3967ba955182e"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc21865dcbcdb4018bc4b2a05c467c61b"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2428290d4e4042059531c22def1ab49e"/>
   </x:sheets>
 </x:workbook>
 </file>
